--- a/medicine/Enfance/Les_Évadés_du_temps/Les_Évadés_du_temps.xlsx
+++ b/medicine/Enfance/Les_Évadés_du_temps/Les_Évadés_du_temps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_%C3%89vad%C3%A9s_du_temps</t>
+          <t>Les_Évadés_du_temps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Évadés du temps est une série de neuf romans pour la jeunesse mêlant science-fiction et fantastique, écrite par Philippe Ébly et publiée en France de 1977 à 1988. Elle a d'abord paru chez Hachette dans la collection Bibliothèque verte avant d'être partiellement rééditée aux Éditions Degliame.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_%C3%89vad%C3%A9s_du_temps</t>
+          <t>Les_Évadés_du_temps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Didier et Thierry : deux adolescents de seize ou dix-sept ans.
 Kouroun : adolescent venant du pays de Ganéom et qui l'a quitté à jamais pour guider Didier et Thierry.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_%C3%89vad%C3%A9s_du_temps</t>
+          <t>Les_Évadés_du_temps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1977 : Les Trois Portes (réédition : septembre 2004 chez Degliame)
 1978 : Le Voyageur de l'au-delà (réédition : septembre 2004 chez Degliame)
